--- a/doc/PPTV视频参数标准.xlsx
+++ b/doc/PPTV视频参数标准.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN_codecs\transcli\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="94">
   <si>
     <t>视频编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,6 +379,22 @@
   </si>
   <si>
     <t>4:3模式 480x360  16:9    480x272 其他480*X(X&lt;360)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频码率提升10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频码率提升20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频码率提升30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100*1.1-64=1146</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +402,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +442,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -444,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -466,9 +501,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -481,12 +522,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -528,7 +572,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -563,7 +607,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -772,13 +816,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
@@ -787,9 +831,12 @@
     <col min="7" max="7" width="13.875" customWidth="1"/>
     <col min="9" max="9" width="14.625" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="12" max="12" width="17.125" customWidth="1"/>
+    <col min="13" max="13" width="12.25" customWidth="1"/>
+    <col min="14" max="14" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="19.5" customHeight="1">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -817,8 +864,17 @@
       <c r="J1" t="s">
         <v>43</v>
       </c>
+      <c r="L1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="46.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -850,7 +906,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="50.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
@@ -881,8 +937,20 @@
       <c r="J3" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="L3" s="7">
+        <f>640*1.1-48</f>
+        <v>656</v>
+      </c>
+      <c r="M3" s="8">
+        <f>640*1.2-48</f>
+        <v>720</v>
+      </c>
+      <c r="N3" s="8">
+        <f>640*1.3-48</f>
+        <v>784</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="39.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
@@ -913,8 +981,19 @@
       <c r="J4" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="L4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" s="8">
+        <f>1100*1.2-64</f>
+        <v>1256</v>
+      </c>
+      <c r="N4" s="8">
+        <f>1100*1.3-64</f>
+        <v>1366</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="27">
       <c r="A5" s="1" t="s">
         <v>69</v>
       </c>
@@ -945,8 +1024,20 @@
       <c r="J5" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="L5" s="8">
+        <f>2200*1.1-192</f>
+        <v>2228</v>
+      </c>
+      <c r="M5" s="8">
+        <f>2200*1.2-192</f>
+        <v>2448</v>
+      </c>
+      <c r="N5" s="8">
+        <f>2200*1.3-192</f>
+        <v>2668</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="27" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
@@ -978,7 +1069,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="40.5">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1010,7 +1101,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="40.5">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1042,7 +1133,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="40.5">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1074,7 +1165,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="27" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1106,7 +1197,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="31.5" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -1138,7 +1229,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="31.5" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1170,7 +1261,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="27">
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
@@ -1202,7 +1293,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14">
       <c r="A15" s="5" t="s">
         <v>66</v>
       </c>
@@ -1228,7 +1319,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1241,7 +1332,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/PPTV视频参数标准.xlsx
+++ b/doc/PPTV视频参数标准.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN_codecs\transcli\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\转码工作相关软件及文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605"/>
+    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="旧转码参数标准" sheetId="1" r:id="rId1"/>
+    <sheet name="20151110新转码参数标准" sheetId="3" r:id="rId2"/>
+    <sheet name="20151028" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="156">
   <si>
     <t>视频编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,327 +74,621 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>64K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LC-AAC </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile    (300K)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile    (156K)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:3模式 320x240  16:9    320x176 其他320*X(X&lt;240)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 FPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>156K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:3模式 176x144  16:9    176x96  其他176*X(X&lt;144)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 FPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3GP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile     (50K)-没有启用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川电信         (4M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>720P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3600k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3900k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川电信         (2M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>720x576</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1700k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1900k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压制方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x264 2pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏有线         (4M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25 FPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192k(48000HZ)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4200k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MC CBR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏有线         (8M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>720P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8200k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:3模式 720x540  16:9    720x408 其他720*X(X&lt;540)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H.264 High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H.264 High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H.264 Baseline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1036K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同片源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">290K   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">590K   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>640K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2300K (5.1) 2200K(Stero)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：采用降低码率算法后，成片码率不准，根据片源内容不同，码率变化范围比较大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝光版-VIP       (2.2M)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超清-720P (1100K)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原画-1080P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H.264 High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H.264 High</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1080P/720P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1080P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1080P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LC-AAC </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256K (5.1) 192K(Stereo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>288K (5.1) 192K(Stereo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6300k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x264 2pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x264 2pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高清版-480P (500K~600K)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流畅版-360P (300K~350K)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">340K </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:3模式 480x360  16:9    480x272 其他480*X(X&lt;360)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>4:3模式 1280x960  16:9    1280x720 其他1280*X(X&lt;960)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>350K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000k</t>
+  </si>
+  <si>
+    <t>5000k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000k</t>
+  </si>
+  <si>
+    <t>288K (5.1) 192K(Stereo)</t>
+  </si>
+  <si>
+    <t>4000k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H.265</t>
+  </si>
+  <si>
+    <t>H.265</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x265 2pass</t>
+  </si>
+  <si>
+    <t>x265 2pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2064k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64k</t>
+  </si>
+  <si>
+    <t>64k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5064k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HE-AAC</t>
+  </si>
+  <si>
+    <t>HE-AAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4064k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原画档</t>
+  </si>
+  <si>
+    <t>原画档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝光档</t>
+  </si>
+  <si>
+    <t>蓝光档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超清档</t>
+  </si>
+  <si>
+    <t>超清档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高清档</t>
+  </si>
+  <si>
+    <t>高清档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流畅档</t>
+  </si>
+  <si>
+    <t>流畅档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4K档</t>
+  </si>
+  <si>
+    <t>4K档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>档位</t>
+  </si>
+  <si>
+    <t>档位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1080P（1920*X）</t>
+  </si>
+  <si>
+    <t>1080P（1920*X）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4K(3840*X)</t>
+  </si>
+  <si>
+    <t>4K(3840*X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频编码</t>
+  </si>
+  <si>
+    <t>分辨率</t>
+  </si>
+  <si>
+    <t>帧率</t>
+  </si>
+  <si>
+    <t>视频码率</t>
+  </si>
+  <si>
+    <t>音频格式</t>
+  </si>
+  <si>
+    <t>音频码率</t>
+  </si>
+  <si>
+    <t>封装格式</t>
+  </si>
+  <si>
+    <r>
+      <t>总码率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（旧总码率）</t>
+    </r>
+  </si>
+  <si>
+    <t>压制方式</t>
+  </si>
+  <si>
+    <t>H.264 High</t>
+  </si>
+  <si>
+    <t>4:3模式 480x360  16:9    480x272 其他480*X(X&lt;360)</t>
+  </si>
+  <si>
+    <t>同片源</t>
+  </si>
+  <si>
+    <t xml:space="preserve">290K   </t>
+  </si>
+  <si>
+    <t>48K</t>
+  </si>
+  <si>
+    <r>
+      <t>340K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(340K)</t>
+    </r>
+  </si>
+  <si>
+    <t>x264 2pass</t>
+  </si>
+  <si>
+    <t>4:3模式 1280x960  16:9    1280x720 其他1280*X(X&lt;960)</t>
+  </si>
+  <si>
     <t>64K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1080P/720P</t>
+  </si>
+  <si>
+    <r>
+      <t>5064k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(2200K)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">LC-AAC </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mobile    (300K)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mobile    (156K)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4:3模式 320x240  16:9    320x176 其他320*X(X&lt;240)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15 FPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>156K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4:3模式 176x144  16:9    176x96  其他176*X(X&lt;144)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 FPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3GP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mobile     (50K)-没有启用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>128K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四川电信         (4M)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>720P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3600k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>128k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3900k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四川电信         (2M)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>720x576</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1700k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1900k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>压制方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x264 2pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江苏有线         (4M)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25 FPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192k(48000HZ)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4200k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MC CBR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江苏有线         (8M)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>720P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8000k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8200k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4:3模式 720x540  16:9    720x408 其他720*X(X&lt;540)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H.264 High</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H.264 High</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H.264 Baseline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1036K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同片源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">290K   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">590K   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>640K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2300K (5.1) 2200K(Stero)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：采用降低码率算法后，成片码率不准，根据片源内容不同，码率变化范围比较大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>350K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝光版-VIP       (2.2M)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超清-720P (1100K)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原画-1080P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H.264 High</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H.264 High</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1080P/720P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1080P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1080P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6000k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">LC-AAC </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>256K (5.1) 192K(Stereo)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>288K (5.1) 192K(Stereo)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6300k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x264 2pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x264 2pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高清版-480P (500K~600K)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流畅版-360P (300K~350K)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">340K </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4:3模式 480x360  16:9    480x272 其他480*X(X&lt;360)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频码率提升10%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频码率提升20%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频码率提升30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100*1.1-64=1146</t>
+  </si>
+  <si>
+    <r>
+      <t>6300k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(6300K)</t>
+    </r>
+  </si>
+  <si>
+    <t>1800K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1864k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1100K)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>850K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>914K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(640K)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3800k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3864k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(不存在)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑到isp宽带服务1，2，4mbps的档位，如果画质档位正好卡准在带宽档位上，带宽正好的看不了，带宽高的还剩很多富余，故降低部分画质档位的码率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原画档和流畅档含有&lt;rcmode&gt;1&lt;/rcmode&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原画档还设有&lt;lowerbitrate&gt;0&lt;/lowerbitrate&gt;，即不允许降低码率。其他档位默认为1，即可以降低码率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +696,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,6 +738,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -456,16 +767,79 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -473,13 +847,116 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -495,21 +972,89 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="计算" xfId="1" builtinId="22"/>
+    <cellStyle name="注释" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -818,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -831,9 +1376,10 @@
     <col min="7" max="7" width="13.875" customWidth="1"/>
     <col min="9" max="9" width="14.625" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="12" max="12" width="17.125" customWidth="1"/>
-    <col min="13" max="13" width="12.25" customWidth="1"/>
-    <col min="14" max="14" width="11.75" customWidth="1"/>
+    <col min="12" max="12" width="11.875" customWidth="1"/>
+    <col min="13" max="13" width="23.75" customWidth="1"/>
+    <col min="14" max="14" width="17.125" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" customHeight="1">
@@ -862,24 +1408,18 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" t="s">
-        <v>90</v>
-      </c>
-      <c r="M1" t="s">
-        <v>91</v>
-      </c>
-      <c r="N1" t="s">
-        <v>92</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="46.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -888,39 +1428,42 @@
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" ht="50.25" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
@@ -932,376 +1475,353 @@
         <v>8</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="7">
-        <f>640*1.1-48</f>
-        <v>656</v>
-      </c>
-      <c r="M3" s="8">
-        <f>640*1.2-48</f>
-        <v>720</v>
-      </c>
-      <c r="N3" s="8">
-        <f>640*1.3-48</f>
-        <v>784</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" ht="39.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="M4" s="8">
-        <f>1100*1.2-64</f>
-        <v>1256</v>
-      </c>
-      <c r="N4" s="8">
-        <f>1100*1.3-64</f>
-        <v>1366</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" ht="27">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" s="8">
-        <f>2200*1.1-192</f>
-        <v>2228</v>
-      </c>
-      <c r="M5" s="8">
-        <f>2200*1.2-192</f>
-        <v>2448</v>
-      </c>
-      <c r="N5" s="8">
-        <f>2200*1.3-192</f>
-        <v>2668</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" ht="27" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="F6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" ht="40.5">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="40.5">
       <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="40.5">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="J9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="27" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="J10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="31.5" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="31.5" customHeight="1">
       <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="27">
       <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="J13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="A15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1315,26 +1835,755 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="9" max="9" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A1" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A2" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="54.75" thickBot="1">
+      <c r="A3" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A4" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.5" customHeight="1" thickBot="1">
+      <c r="A5" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="57.75" customHeight="1" thickBot="1">
+      <c r="A6" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.25" thickBot="1">
+      <c r="A7" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="12" max="12" width="11.875" customWidth="1"/>
+    <col min="13" max="13" width="23.75" customWidth="1"/>
+    <col min="14" max="14" width="17.125" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="19.5" customHeight="1">
+      <c r="A1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="46.5" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="50.25" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="39.75" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="27" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="11" customFormat="1" ht="27" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:14" ht="40.5">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="40.5">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="40.5">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="27" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="31.5" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="31.5" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="27">
+      <c r="A14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A16:F16"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>